--- a/Datos/Database by set/Set with text box/Xlsx sets/Core Set 2019 Tokens (TM19).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Core Set 2019 Tokens (TM19).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A65"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,448 +444,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ajani, Adversary of Tyrants Emblem</t>
+          <t>('Ajani, Adversary of Tyrants Emblem', ['Emblem — Ajani', 'At the beginning of your end step, create three 1/1 white Cat creature tokens with lifelink.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Emblem — Ajani</t>
+          <t>('Angel', ['Token Creature — Angel', 'Flying, vigilance', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>At the beginning of your end step, create three 1/1 white Cat creature tokens with lifelink.</t>
+          <t>('Avatar', ['Token Creature — Avatar', 'Flying', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>('Bat', ['Token Creature — Bat', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Token Creature — Angel</t>
+          <t>('Beast', ['Token Creature — Beast', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Flying, vigilance</t>
+          <t>('Cat', ['Token Creature — Cat', 'Lifelink (Damage dealt by this creature also causes you to gain that much life.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Core Set 2019 Checklist', ['Card', '(Use this card to represent a double-faced Nicol Bolas card in your library or hand.)', '☐ Nicol Bolas, the Ravager {1}{U}{B}{R}'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Avatar</t>
+          <t>('Dragon', ['Token Creature — Dragon', 'Flying', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Token Creature — Avatar</t>
+          <t>('Elf Warrior', ['Token Creature — Elf Warrior', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Goblin', ['Token Creature — Goblin', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4/4</t>
+          <t>('Knight', ['Token Creature — Knight', 'Vigilance', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bat</t>
+          <t>('Ox', ['Token Creature — Ox', '2/4'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Token Creature — Bat</t>
+          <t>('Soldier', ['Token Creature — Soldier', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Tezzeret, Artifice Master Emblem', ['Emblem — Tezzeret', 'At the beginning of your end step, search your library for a permanent card, put it onto the battlefield, then shuffle your library.'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>('Thopter', ['Token Artifact Creature — Thopter', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Beast</t>
+          <t>('Vivien Reid Emblem', ['Emblem — Vivien', 'Creatures you control get +2/+2 and have vigilance, trample, and indestructible.'])</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Token Creature — Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Cat</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Token Creature — Cat</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Lifelink (Damage dealt by this creature also causes you to gain that much life.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Core Set 2019 Checklist</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>(Use this card to represent a double-faced Nicol Bolas card in your library or hand.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>☐ Nicol Bolas, the Ravager {1}{U}{B}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Token Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>{R}: This creature gets +1/+0 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Token Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Elf Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Token Creature — Elf Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Token Creature — Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Token Creature — Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Ox</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Token Creature — Ox</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Token Creature — Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Tezzeret, Artifice Master Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Emblem — Tezzeret</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>At the beginning of your end step, search your library for a permanent card, put it onto the battlefield, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Thopter</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Token Artifact Creature — Thopter</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Vivien Reid Emblem</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Emblem — Vivien</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Creatures you control get +2/+2 and have vigilance, trample, and indestructible.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Token Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Zombie', ['Token Creature — Zombie', '2/2'])</t>
         </is>
       </c>
     </row>
